--- a/biology/Botanique/Photosystème/Photosystème.xlsx
+++ b/biology/Botanique/Photosystème/Photosystème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me</t>
+          <t>Photosystème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un photosystème est un ensemble formé par des protéines et des pigments - dont la chlorophylle - et se trouve dans les membranes thylakoïdales des cyanobactéries et des chloroplastes dans les cellules végétales.  Les photosystèmes interviennent dans les mécanismes de la photosynthèse en absorbant les photons de la lumière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me</t>
+          <t>Photosystème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description et principe de fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un photosystème est constitué d'un centre réactionnel et d'une antenne collectrice permettant d'optimiser l'absorption des photons déclenchant les réactions photochimiques.
 Un centre réactionnel est un emplacement spécialisé constitué de deux molécules de chlorophylle a capable de céder ses électrons à l'accepteur primaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me</t>
+          <t>Photosystème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Deux types de photosystèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux photosystèmes qui interviennent successivement dans la photosynthèse, le photosystème II intervenant avant le photosystème I :
 Le photosystème II, qui se situe dans les grana, a pour centre réactionnel une paire de molécules de chlorophylle a P680 (absorbant la lumière de longueur d'onde inférieure ou égale à 680 nm). À ce stade, l'énergie accumulée par le centre réactionnel libère un électron énergétique qui est transporté sur une chaîne d'accepteurs d'électron. L'électron passe par une plastoquinone puis par le complexe cytochrome b6f en entraînant le pompage d'un proton H+ vers le lumen du thylakoïde. Ce gradient de concentration de protons autour de la membrane du thylakoïde est à l'origine du gradient électrochimique permettant à l'ATP synthase de phosphoryler de l'ADP  en ATP.
